--- a/vols/indivROIs.xlsx
+++ b/vols/indivROIs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="45">
   <si>
     <t xml:space="preserve">Measure:volume</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t xml:space="preserve">CortexVol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Thalamus-Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Thalamus-Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalamus</t>
   </si>
 </sst>
 </file>
@@ -337,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD233"/>
+  <dimension ref="A1:AD280"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J190" activeCellId="0" sqref="J190"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A227" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D277" activeCellId="0" sqref="D277:D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7520,7 +7529,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>24</v>
       </c>
@@ -7588,7 +7597,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>24</v>
       </c>
@@ -7632,7 +7641,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>24</v>
       </c>
@@ -7700,7 +7709,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>24</v>
       </c>
@@ -7744,7 +7753,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>25</v>
       </c>
@@ -7812,7 +7821,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>25</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>25</v>
       </c>
@@ -7920,7 +7929,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>25</v>
       </c>
@@ -7960,7 +7969,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>26</v>
       </c>
@@ -8024,7 +8033,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>26</v>
       </c>
@@ -8067,7 +8076,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>26</v>
       </c>
@@ -8132,7 +8141,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>26</v>
       </c>
@@ -8173,7 +8182,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>27</v>
       </c>
@@ -8238,7 +8247,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>27</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>27</v>
       </c>
@@ -8344,7 +8353,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>27</v>
       </c>
@@ -8385,7 +8394,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>28</v>
       </c>
@@ -8450,7 +8459,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>28</v>
       </c>
@@ -8491,7 +8500,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>28</v>
       </c>
@@ -8556,7 +8565,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>28</v>
       </c>
@@ -8597,7 +8606,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -8662,7 +8671,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -8703,7 +8712,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -8768,7 +8777,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
@@ -8809,7 +8818,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>30</v>
       </c>
@@ -8874,7 +8883,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>30</v>
       </c>
@@ -8915,7 +8924,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>30</v>
       </c>
@@ -8980,7 +8989,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>30</v>
       </c>
@@ -9021,7 +9030,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>31</v>
       </c>
@@ -9086,7 +9095,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>31</v>
       </c>
@@ -9127,7 +9136,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
@@ -9192,7 +9201,7 @@
         <v>Match</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>31</v>
       </c>
@@ -10538,6 +10547,1825 @@
         <v>Match</v>
       </c>
     </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M240" s="2"/>
+      <c r="N240" s="2"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>9169.6</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>8671.7</v>
+      </c>
+      <c r="E241" s="1" t="n">
+        <f aca="false">C241+D241</f>
+        <v>17841.3</v>
+      </c>
+      <c r="F241" s="1" t="n">
+        <f aca="false">ABS(E242-E241)</f>
+        <v>619.800000000003</v>
+      </c>
+      <c r="G241" s="1" t="n">
+        <f aca="false">100*(F241/(E241+E242))</f>
+        <v>1.76768541017832</v>
+      </c>
+      <c r="I241" s="1" t="n">
+        <f aca="false">ABS(C242-C241)</f>
+        <v>493.9</v>
+      </c>
+      <c r="J241" s="1" t="n">
+        <f aca="false">200*(I241/(C241+C242))</f>
+        <v>5.53535104481291</v>
+      </c>
+      <c r="K241" s="1" t="n">
+        <f aca="false">ABS(D242-D241)</f>
+        <v>125.900000000001</v>
+      </c>
+      <c r="L241" s="1" t="n">
+        <f aca="false">200*(K241/(D242+D241))</f>
+        <v>1.46246551473793</v>
+      </c>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P241" s="1" t="n">
+        <f aca="false">G241</f>
+        <v>1.76768541017832</v>
+      </c>
+      <c r="Q241" s="1" t="n">
+        <f aca="false">G245</f>
+        <v>0.57010760013178</v>
+      </c>
+      <c r="R241" s="1" t="n">
+        <f aca="false">G249</f>
+        <v>0.967395444765116</v>
+      </c>
+      <c r="S241" s="1" t="n">
+        <f aca="false">G253</f>
+        <v>3.01693528593635</v>
+      </c>
+      <c r="T241" s="1" t="n">
+        <f aca="false">G257</f>
+        <v>2.57590778485373</v>
+      </c>
+      <c r="U241" s="1" t="n">
+        <f aca="false">G261</f>
+        <v>1.31377253719067</v>
+      </c>
+      <c r="V241" s="1" t="n">
+        <f aca="false">G265</f>
+        <v>2.75668154675634</v>
+      </c>
+      <c r="W241" s="1" t="n">
+        <f aca="false">G269</f>
+        <v>0.00637222921819479</v>
+      </c>
+      <c r="X241" s="1" t="n">
+        <f aca="false">G273</f>
+        <v>0.902744600289508</v>
+      </c>
+      <c r="Y241" s="1" t="n">
+        <f aca="false">G277</f>
+        <v>2.75130180577971</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>8675.7</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>8545.8</v>
+      </c>
+      <c r="E242" s="1" t="n">
+        <f aca="false">C242+D242</f>
+        <v>17221.5</v>
+      </c>
+      <c r="I242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P242" s="1" t="n">
+        <f aca="false">G243</f>
+        <v>2.86140817243925</v>
+      </c>
+      <c r="Q242" s="1" t="n">
+        <f aca="false">G247</f>
+        <v>1.09303962198814</v>
+      </c>
+      <c r="R242" s="1" t="n">
+        <f aca="false">G251</f>
+        <v>1.40470856956951</v>
+      </c>
+      <c r="S242" s="1" t="n">
+        <f aca="false">G255</f>
+        <v>0.346083094585658</v>
+      </c>
+      <c r="T242" s="1" t="n">
+        <f aca="false">G259</f>
+        <v>0.149889504531925</v>
+      </c>
+      <c r="U242" s="1" t="n">
+        <f aca="false">G263</f>
+        <v>2.36700677411566</v>
+      </c>
+      <c r="V242" s="1" t="n">
+        <f aca="false">G267</f>
+        <v>0.00565421106792969</v>
+      </c>
+      <c r="W242" s="1" t="n">
+        <f aca="false">G271</f>
+        <v>2.73542488257015</v>
+      </c>
+      <c r="X242" s="1" t="n">
+        <f aca="false">G275</f>
+        <v>0.610617701011637</v>
+      </c>
+      <c r="Y242" s="1" t="n">
+        <f aca="false">G279</f>
+        <v>1.25804684034547</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>9001.1</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>8502.4</v>
+      </c>
+      <c r="E243" s="1" t="n">
+        <f aca="false">C243+D243</f>
+        <v>17503.5</v>
+      </c>
+      <c r="F243" s="1" t="n">
+        <f aca="false">ABS(E244-E243)</f>
+        <v>1031.2</v>
+      </c>
+      <c r="G243" s="1" t="n">
+        <f aca="false">100*(F243/(E243+E244))</f>
+        <v>2.86140817243925</v>
+      </c>
+      <c r="I243" s="1" t="n">
+        <f aca="false">ABS(C244-C243)</f>
+        <v>138</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <f aca="false">200*(I243/(C243+C244))</f>
+        <v>1.52148267384042</v>
+      </c>
+      <c r="K243" s="1" t="n">
+        <f aca="false">ABS(D244-D243)</f>
+        <v>893.200000000001</v>
+      </c>
+      <c r="L243" s="1" t="n">
+        <f aca="false">200*(K243/(D244+D243))</f>
+        <v>9.98100346407421</v>
+      </c>
+      <c r="M243" s="2"/>
+      <c r="N243" s="2"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>9139.1</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>9395.6</v>
+      </c>
+      <c r="E244" s="1" t="n">
+        <f aca="false">C244+D244</f>
+        <v>18534.7</v>
+      </c>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P244" s="1" t="n">
+        <f aca="false">J241</f>
+        <v>5.53535104481291</v>
+      </c>
+      <c r="Q244" s="1" t="n">
+        <f aca="false">J245</f>
+        <v>2.3387617476146</v>
+      </c>
+      <c r="R244" s="1" t="n">
+        <f aca="false">J249</f>
+        <v>0.48237426247155</v>
+      </c>
+      <c r="S244" s="1" t="n">
+        <f aca="false">J253</f>
+        <v>1.6885492406736</v>
+      </c>
+      <c r="T244" s="1" t="n">
+        <f aca="false">J257</f>
+        <v>5.08113131878975</v>
+      </c>
+      <c r="U244" s="1" t="n">
+        <f aca="false">J261</f>
+        <v>3.80662230417701</v>
+      </c>
+      <c r="V244" s="1" t="n">
+        <f aca="false">J265</f>
+        <v>2.00652266112874</v>
+      </c>
+      <c r="W244" s="1" t="n">
+        <f aca="false">J269</f>
+        <v>0.00610250996234751</v>
+      </c>
+      <c r="X244" s="1" t="n">
+        <f aca="false">J273</f>
+        <v>4.06116190862036</v>
+      </c>
+      <c r="Y244" s="1" t="n">
+        <f aca="false">J277</f>
+        <v>6.01320793700594</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>8954.4</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>8852.4</v>
+      </c>
+      <c r="E245" s="1" t="n">
+        <f aca="false">C245+D245</f>
+        <v>17806.8</v>
+      </c>
+      <c r="F245" s="1" t="n">
+        <f aca="false">ABS(E246-E245)</f>
+        <v>204.200000000001</v>
+      </c>
+      <c r="G245" s="1" t="n">
+        <f aca="false">100*(F245/(E245+E246))</f>
+        <v>0.57010760013178</v>
+      </c>
+      <c r="I245" s="1" t="n">
+        <f aca="false">ABS(C246-C245)</f>
+        <v>211.9</v>
+      </c>
+      <c r="J245" s="1" t="n">
+        <f aca="false">200*(I245/(C245+C246))</f>
+        <v>2.3387617476146</v>
+      </c>
+      <c r="K245" s="1" t="n">
+        <f aca="false">ABS(D246-D245)</f>
+        <v>7.69999999999891</v>
+      </c>
+      <c r="L245" s="1" t="n">
+        <f aca="false">200*(K245/(D246+D245))</f>
+        <v>0.0870199072164243</v>
+      </c>
+      <c r="M245" s="2"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P245" s="1" t="n">
+        <f aca="false">J243</f>
+        <v>1.52148267384042</v>
+      </c>
+      <c r="Q245" s="1" t="n">
+        <f aca="false">J247</f>
+        <v>0.784170104591931</v>
+      </c>
+      <c r="R245" s="1" t="n">
+        <f aca="false">J251</f>
+        <v>0.71763506625891</v>
+      </c>
+      <c r="S245" s="1" t="n">
+        <f aca="false">J255</f>
+        <v>4.26930753240655</v>
+      </c>
+      <c r="T245" s="1" t="n">
+        <f aca="false">J259</f>
+        <v>0.309429228517684</v>
+      </c>
+      <c r="U245" s="1" t="n">
+        <f aca="false">J263</f>
+        <v>2.3685997273778</v>
+      </c>
+      <c r="V245" s="1" t="n">
+        <f aca="false">J267</f>
+        <v>0.202779450665897</v>
+      </c>
+      <c r="W245" s="1" t="n">
+        <f aca="false">J271</f>
+        <v>4.2782675538687</v>
+      </c>
+      <c r="X245" s="1" t="n">
+        <f aca="false">J275</f>
+        <v>4.27723218054422</v>
+      </c>
+      <c r="Y245" s="1" t="n">
+        <f aca="false">J279</f>
+        <v>0.660972444390791</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>9166.3</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>8844.7</v>
+      </c>
+      <c r="E246" s="1" t="n">
+        <f aca="false">C246+D246</f>
+        <v>18011</v>
+      </c>
+      <c r="M246" s="2"/>
+      <c r="N246" s="2"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>9320.1</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>8779.8</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <f aca="false">C247+D247</f>
+        <v>18099.9</v>
+      </c>
+      <c r="F247" s="1" t="n">
+        <f aca="false">ABS(E248-E247)</f>
+        <v>391.400000000001</v>
+      </c>
+      <c r="G247" s="1" t="n">
+        <f aca="false">100*(F247/(E247+E248))</f>
+        <v>1.09303962198814</v>
+      </c>
+      <c r="I247" s="1" t="n">
+        <f aca="false">ABS(C248-C247)</f>
+        <v>72.8000000000011</v>
+      </c>
+      <c r="J247" s="1" t="n">
+        <f aca="false">200*(I247/(C247+C248))</f>
+        <v>0.784170104591931</v>
+      </c>
+      <c r="K247" s="1" t="n">
+        <f aca="false">ABS(D248-D247)</f>
+        <v>318.599999999999</v>
+      </c>
+      <c r="L247" s="1" t="n">
+        <f aca="false">200*(K247/(D248+D247))</f>
+        <v>3.69584130850877</v>
+      </c>
+      <c r="M247" s="2"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P247" s="1" t="n">
+        <f aca="false">L241</f>
+        <v>1.46246551473793</v>
+      </c>
+      <c r="Q247" s="1" t="n">
+        <f aca="false">L245</f>
+        <v>0.0870199072164243</v>
+      </c>
+      <c r="R247" s="1" t="n">
+        <f aca="false">L249</f>
+        <v>3.40876876378546</v>
+      </c>
+      <c r="S247" s="1" t="n">
+        <f aca="false">L253</f>
+        <v>10.4269769400863</v>
+      </c>
+      <c r="T247" s="1" t="n">
+        <f aca="false">L257</f>
+        <v>5.23086122698862</v>
+      </c>
+      <c r="U247" s="1" t="n">
+        <f aca="false">L261</f>
+        <v>9.40646469196983</v>
+      </c>
+      <c r="V247" s="1" t="n">
+        <f aca="false">L265</f>
+        <v>8.95783954607485</v>
+      </c>
+      <c r="W247" s="1" t="n">
+        <f aca="false">L269</f>
+        <v>0.0313842885423249</v>
+      </c>
+      <c r="X247" s="1" t="n">
+        <f aca="false">L263</f>
+        <v>7.33201266024546</v>
+      </c>
+      <c r="Y247" s="1" t="n">
+        <f aca="false">L277</f>
+        <v>4.99723553959996</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>9247.3</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>8461.2</v>
+      </c>
+      <c r="E248" s="1" t="n">
+        <f aca="false">C248+D248</f>
+        <v>17708.5</v>
+      </c>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P248" s="1" t="n">
+        <f aca="false">L243</f>
+        <v>9.98100346407421</v>
+      </c>
+      <c r="Q248" s="1" t="n">
+        <f aca="false">L247</f>
+        <v>3.69584130850877</v>
+      </c>
+      <c r="R248" s="1" t="n">
+        <f aca="false">L251</f>
+        <v>4.89018380439265</v>
+      </c>
+      <c r="S248" s="1" t="n">
+        <f aca="false">L255</f>
+        <v>2.90842358436792</v>
+      </c>
+      <c r="T248" s="1" t="n">
+        <f aca="false">L259</f>
+        <v>0.288624201622643</v>
+      </c>
+      <c r="U248" s="1" t="n">
+        <f aca="false">L263</f>
+        <v>7.33201266024546</v>
+      </c>
+      <c r="V248" s="1" t="n">
+        <f aca="false">L267</f>
+        <v>0.220711047482704</v>
+      </c>
+      <c r="W248" s="1" t="n">
+        <f aca="false">L271</f>
+        <v>6.77756428815834</v>
+      </c>
+      <c r="X248" s="1" t="n">
+        <f aca="false">L275</f>
+        <v>2.04135279052477</v>
+      </c>
+      <c r="Y248" s="1" t="n">
+        <f aca="false">L279</f>
+        <v>5.61805202554866</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>7321</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>7108.1</v>
+      </c>
+      <c r="E249" s="1" t="n">
+        <f aca="false">C249+D249</f>
+        <v>14429.1</v>
+      </c>
+      <c r="F249" s="1" t="n">
+        <f aca="false">ABS(E250-E249)</f>
+        <v>281.9</v>
+      </c>
+      <c r="G249" s="1" t="n">
+        <f aca="false">100*(F249/(E249+E250))</f>
+        <v>0.967395444765116</v>
+      </c>
+      <c r="I249" s="1" t="n">
+        <f aca="false">ABS(C250-C249)</f>
+        <v>35.3999999999996</v>
+      </c>
+      <c r="J249" s="1" t="n">
+        <f aca="false">200*(I249/(C249+C250))</f>
+        <v>0.48237426247155</v>
+      </c>
+      <c r="K249" s="1" t="n">
+        <f aca="false">ABS(D250-D249)</f>
+        <v>246.5</v>
+      </c>
+      <c r="L249" s="1" t="n">
+        <f aca="false">200*(K249/(D250+D249))</f>
+        <v>3.40876876378546</v>
+      </c>
+      <c r="M249" s="2"/>
+      <c r="N249" s="2"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="2"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>7356.4</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>7354.6</v>
+      </c>
+      <c r="E250" s="1" t="n">
+        <f aca="false">C250+D250</f>
+        <v>14711</v>
+      </c>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="2"/>
+      <c r="V250" s="2"/>
+      <c r="W250" s="2"/>
+      <c r="X250" s="2"/>
+      <c r="Y250" s="2"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>7383.9</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>7577.3</v>
+      </c>
+      <c r="E251" s="1" t="n">
+        <f aca="false">C251+D251</f>
+        <v>14961.2</v>
+      </c>
+      <c r="F251" s="1" t="n">
+        <f aca="false">ABS(E252-E251)</f>
+        <v>414.5</v>
+      </c>
+      <c r="G251" s="1" t="n">
+        <f aca="false">100*(F251/(E251+E252))</f>
+        <v>1.40470856956951</v>
+      </c>
+      <c r="I251" s="1" t="n">
+        <f aca="false">ABS(C252-C251)</f>
+        <v>52.7999999999993</v>
+      </c>
+      <c r="J251" s="1" t="n">
+        <f aca="false">200*(I251/(C251+C252))</f>
+        <v>0.71763506625891</v>
+      </c>
+      <c r="K251" s="1" t="n">
+        <f aca="false">ABS(D252-D251)</f>
+        <v>361.7</v>
+      </c>
+      <c r="L251" s="1" t="n">
+        <f aca="false">200*(K251/(D252+D251))</f>
+        <v>4.89018380439265</v>
+      </c>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="2"/>
+      <c r="V251" s="2"/>
+      <c r="W251" s="2"/>
+      <c r="X251" s="2"/>
+      <c r="Y251" s="2"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>7331.1</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>7215.6</v>
+      </c>
+      <c r="E252" s="1" t="n">
+        <f aca="false">C252+D252</f>
+        <v>14546.7</v>
+      </c>
+      <c r="M252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="P252" s="2"/>
+      <c r="Q252" s="2"/>
+      <c r="R252" s="2"/>
+      <c r="S252" s="2"/>
+      <c r="T252" s="2"/>
+      <c r="U252" s="2"/>
+      <c r="V252" s="2"/>
+      <c r="W252" s="2"/>
+      <c r="X252" s="2"/>
+      <c r="Y252" s="2"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>7616.3</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>7201.5</v>
+      </c>
+      <c r="E253" s="1" t="n">
+        <f aca="false">C253+D253</f>
+        <v>14817.8</v>
+      </c>
+      <c r="F253" s="1" t="n">
+        <f aca="false">ABS(E254-E253)</f>
+        <v>921.900000000002</v>
+      </c>
+      <c r="G253" s="1" t="n">
+        <f aca="false">100*(F253/(E253+E254))</f>
+        <v>3.01693528593635</v>
+      </c>
+      <c r="I253" s="1" t="n">
+        <f aca="false">ABS(C254-C253)</f>
+        <v>129.7</v>
+      </c>
+      <c r="J253" s="1" t="n">
+        <f aca="false">200*(I253/(C253+C254))</f>
+        <v>1.6885492406736</v>
+      </c>
+      <c r="K253" s="1" t="n">
+        <f aca="false">ABS(D254-D253)</f>
+        <v>792.2</v>
+      </c>
+      <c r="L253" s="1" t="n">
+        <f aca="false">200*(K253/(D254+D253))</f>
+        <v>10.4269769400863</v>
+      </c>
+      <c r="M253" s="2"/>
+      <c r="N253" s="2"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" s="2"/>
+      <c r="R253" s="2"/>
+      <c r="S253" s="2"/>
+      <c r="T253" s="2"/>
+      <c r="U253" s="2"/>
+      <c r="V253" s="2"/>
+      <c r="W253" s="2"/>
+      <c r="X253" s="2"/>
+      <c r="Y253" s="2"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>7746</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>7993.7</v>
+      </c>
+      <c r="E254" s="1" t="n">
+        <f aca="false">C254+D254</f>
+        <v>15739.7</v>
+      </c>
+      <c r="M254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2"/>
+      <c r="V254" s="2"/>
+      <c r="W254" s="2"/>
+      <c r="X254" s="2"/>
+      <c r="Y254" s="2"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>7394.6</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>7088.3</v>
+      </c>
+      <c r="E255" s="1" t="n">
+        <f aca="false">C255+D255</f>
+        <v>14482.9</v>
+      </c>
+      <c r="F255" s="1" t="n">
+        <f aca="false">ABS(E256-E255)</f>
+        <v>99.9000000000015</v>
+      </c>
+      <c r="G255" s="1" t="n">
+        <f aca="false">100*(F255/(E255+E256))</f>
+        <v>0.346083094585658</v>
+      </c>
+      <c r="I255" s="1" t="n">
+        <f aca="false">ABS(C256-C255)</f>
+        <v>309.1</v>
+      </c>
+      <c r="J255" s="1" t="n">
+        <f aca="false">200*(I255/(C255+C256))</f>
+        <v>4.26930753240655</v>
+      </c>
+      <c r="K255" s="1" t="n">
+        <f aca="false">ABS(D256-D255)</f>
+        <v>209.2</v>
+      </c>
+      <c r="L255" s="1" t="n">
+        <f aca="false">200*(K255/(D256+D255))</f>
+        <v>2.90842358436792</v>
+      </c>
+      <c r="M255" s="2"/>
+      <c r="N255" s="2"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="2"/>
+      <c r="V255" s="2"/>
+      <c r="W255" s="2"/>
+      <c r="X255" s="2"/>
+      <c r="Y255" s="2"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>7085.5</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>7297.5</v>
+      </c>
+      <c r="E256" s="1" t="n">
+        <f aca="false">C256+D256</f>
+        <v>14383</v>
+      </c>
+      <c r="M256" s="2"/>
+      <c r="N256" s="2"/>
+      <c r="P256" s="2"/>
+      <c r="Q256" s="2"/>
+      <c r="V256" s="2"/>
+      <c r="W256" s="2"/>
+      <c r="X256" s="2"/>
+      <c r="Y256" s="2"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>7655</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>6840</v>
+      </c>
+      <c r="E257" s="1" t="n">
+        <f aca="false">C257+D257</f>
+        <v>14495</v>
+      </c>
+      <c r="F257" s="1" t="n">
+        <f aca="false">ABS(E258-E257)</f>
+        <v>766.5</v>
+      </c>
+      <c r="G257" s="1" t="n">
+        <f aca="false">100*(F257/(E257+E258))</f>
+        <v>2.57590778485373</v>
+      </c>
+      <c r="I257" s="1" t="n">
+        <f aca="false">ABS(C258-C257)</f>
+        <v>399.1</v>
+      </c>
+      <c r="J257" s="1" t="n">
+        <f aca="false">200*(I257/(C257+C258))</f>
+        <v>5.08113131878975</v>
+      </c>
+      <c r="K257" s="1" t="n">
+        <f aca="false">ABS(D258-D257)</f>
+        <v>367.4</v>
+      </c>
+      <c r="L257" s="1" t="n">
+        <f aca="false">200*(K257/(D258+D257))</f>
+        <v>5.23086122698862</v>
+      </c>
+      <c r="M257" s="2"/>
+      <c r="N257" s="2"/>
+      <c r="P257" s="2"/>
+      <c r="Q257" s="2"/>
+      <c r="V257" s="2"/>
+      <c r="W257" s="2"/>
+      <c r="X257" s="2"/>
+      <c r="Y257" s="2"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>8054.1</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>7207.4</v>
+      </c>
+      <c r="E258" s="1" t="n">
+        <f aca="false">C258+D258</f>
+        <v>15261.5</v>
+      </c>
+      <c r="M258" s="2"/>
+      <c r="N258" s="2"/>
+      <c r="P258" s="2"/>
+      <c r="Q258" s="2"/>
+      <c r="R258" s="4"/>
+      <c r="T258" s="2"/>
+      <c r="U258" s="2"/>
+      <c r="V258" s="2"/>
+      <c r="W258" s="2"/>
+      <c r="X258" s="2"/>
+      <c r="Y258" s="2"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>8383.2</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>7251.7</v>
+      </c>
+      <c r="E259" s="1" t="n">
+        <f aca="false">C259+D259</f>
+        <v>15634.9</v>
+      </c>
+      <c r="F259" s="1" t="n">
+        <f aca="false">ABS(E260-E259)</f>
+        <v>46.8000000000029</v>
+      </c>
+      <c r="G259" s="1" t="n">
+        <f aca="false">100*(F259/(E259+E260))</f>
+        <v>0.149889504531925</v>
+      </c>
+      <c r="I259" s="1" t="n">
+        <f aca="false">ABS(C260-C259)</f>
+        <v>25.9000000000015</v>
+      </c>
+      <c r="J259" s="1" t="n">
+        <f aca="false">200*(I259/(C259+C260))</f>
+        <v>0.309429228517684</v>
+      </c>
+      <c r="K259" s="1" t="n">
+        <f aca="false">ABS(D260-D259)</f>
+        <v>20.8999999999996</v>
+      </c>
+      <c r="L259" s="1" t="n">
+        <f aca="false">200*(K259/(D260+D259))</f>
+        <v>0.288624201622643</v>
+      </c>
+      <c r="M259" s="2"/>
+      <c r="N259" s="2"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="2"/>
+      <c r="U259" s="2"/>
+      <c r="V259" s="2"/>
+      <c r="W259" s="2"/>
+      <c r="X259" s="2"/>
+      <c r="Y259" s="2"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>8357.3</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>7230.8</v>
+      </c>
+      <c r="E260" s="1" t="n">
+        <f aca="false">C260+D260</f>
+        <v>15588.1</v>
+      </c>
+      <c r="M260" s="2"/>
+      <c r="N260" s="2"/>
+      <c r="P260" s="2"/>
+      <c r="Q260" s="2"/>
+      <c r="U260" s="2"/>
+      <c r="V260" s="2"/>
+      <c r="W260" s="2"/>
+      <c r="X260" s="2"/>
+      <c r="Y260" s="2"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>9176.7</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>9296.6</v>
+      </c>
+      <c r="E261" s="1" t="n">
+        <f aca="false">C261+D261</f>
+        <v>18473.3</v>
+      </c>
+      <c r="F261" s="1" t="n">
+        <f aca="false">ABS(E262-E261)</f>
+        <v>479.100000000006</v>
+      </c>
+      <c r="G261" s="1" t="n">
+        <f aca="false">100*(F261/(E261+E262))</f>
+        <v>1.31377253719067</v>
+      </c>
+      <c r="I261" s="1" t="n">
+        <f aca="false">ABS(C262-C261)</f>
+        <v>356.099999999999</v>
+      </c>
+      <c r="J261" s="1" t="n">
+        <f aca="false">200*(I261/(C261+C262))</f>
+        <v>3.80662230417701</v>
+      </c>
+      <c r="K261" s="1" t="n">
+        <f aca="false">ABS(D262-D261)</f>
+        <v>835.200000000001</v>
+      </c>
+      <c r="L261" s="1" t="n">
+        <f aca="false">200*(K261/(D262+D261))</f>
+        <v>9.40646469196983</v>
+      </c>
+      <c r="M261" s="2"/>
+      <c r="N261" s="2"/>
+      <c r="P261" s="2"/>
+      <c r="Q261" s="2"/>
+      <c r="U261" s="2"/>
+      <c r="V261" s="2"/>
+      <c r="W261" s="2"/>
+      <c r="X261" s="2"/>
+      <c r="Y261" s="2"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>9532.8</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>8461.4</v>
+      </c>
+      <c r="E262" s="1" t="n">
+        <f aca="false">C262+D262</f>
+        <v>17994.2</v>
+      </c>
+      <c r="M262" s="2"/>
+      <c r="N262" s="2"/>
+      <c r="P262" s="2"/>
+      <c r="Q262" s="2"/>
+      <c r="U262" s="2"/>
+      <c r="V262" s="2"/>
+      <c r="W262" s="2"/>
+      <c r="X262" s="2"/>
+      <c r="Y262" s="2"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>9761.3</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>9105.4</v>
+      </c>
+      <c r="E263" s="1" t="n">
+        <f aca="false">C263+D263</f>
+        <v>18866.7</v>
+      </c>
+      <c r="F263" s="1" t="n">
+        <f aca="false">ABS(E264-E263)</f>
+        <v>872.5</v>
+      </c>
+      <c r="G263" s="1" t="n">
+        <f aca="false">100*(F263/(E263+E264))</f>
+        <v>2.36700677411566</v>
+      </c>
+      <c r="I263" s="1" t="n">
+        <f aca="false">ABS(C264-C263)</f>
+        <v>228.5</v>
+      </c>
+      <c r="J263" s="1" t="n">
+        <f aca="false">200*(I263/(C263+C264))</f>
+        <v>2.3685997273778</v>
+      </c>
+      <c r="K263" s="1" t="n">
+        <f aca="false">ABS(D264-D263)</f>
+        <v>644</v>
+      </c>
+      <c r="L263" s="1" t="n">
+        <f aca="false">200*(K263/(D264+D263))</f>
+        <v>7.33201266024546</v>
+      </c>
+      <c r="M263" s="2"/>
+      <c r="N263" s="2"/>
+      <c r="P263" s="2"/>
+      <c r="Q263" s="2"/>
+      <c r="U263" s="2"/>
+      <c r="V263" s="2"/>
+      <c r="W263" s="2"/>
+      <c r="X263" s="2"/>
+      <c r="Y263" s="2"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>9532.8</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>8461.4</v>
+      </c>
+      <c r="E264" s="1" t="n">
+        <f aca="false">C264+D264</f>
+        <v>17994.2</v>
+      </c>
+      <c r="M264" s="2"/>
+      <c r="N264" s="2"/>
+      <c r="P264" s="2"/>
+      <c r="Q264" s="2"/>
+      <c r="U264" s="2"/>
+      <c r="V264" s="2"/>
+      <c r="W264" s="2"/>
+      <c r="X264" s="2"/>
+      <c r="Y264" s="2"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>6769.1</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>6649.7</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <f aca="false">C265+D265</f>
+        <v>13418.8</v>
+      </c>
+      <c r="F265" s="1" t="n">
+        <f aca="false">ABS(E266-E265)</f>
+        <v>760.800000000001</v>
+      </c>
+      <c r="G265" s="1" t="n">
+        <f aca="false">100*(F265/(E265+E266))</f>
+        <v>2.75668154675634</v>
+      </c>
+      <c r="I265" s="1" t="n">
+        <f aca="false">ABS(C266-C265)</f>
+        <v>137.2</v>
+      </c>
+      <c r="J265" s="1" t="n">
+        <f aca="false">200*(I265/(C265+C266))</f>
+        <v>2.00652266112874</v>
+      </c>
+      <c r="K265" s="1" t="n">
+        <f aca="false">ABS(D266-D265)</f>
+        <v>623.6</v>
+      </c>
+      <c r="L265" s="1" t="n">
+        <f aca="false">200*(K265/(D266+D265))</f>
+        <v>8.95783954607485</v>
+      </c>
+      <c r="M265" s="2"/>
+      <c r="N265" s="2"/>
+      <c r="P265" s="2"/>
+      <c r="Q265" s="2"/>
+      <c r="U265" s="2"/>
+      <c r="V265" s="2"/>
+      <c r="W265" s="2"/>
+      <c r="X265" s="2"/>
+      <c r="Y265" s="2"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>6906.3</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>7273.3</v>
+      </c>
+      <c r="E266" s="1" t="n">
+        <f aca="false">C266+D266</f>
+        <v>14179.6</v>
+      </c>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+      <c r="P266" s="2"/>
+      <c r="Q266" s="2"/>
+      <c r="U266" s="2"/>
+      <c r="V266" s="2"/>
+      <c r="W266" s="2"/>
+      <c r="X266" s="2"/>
+      <c r="Y266" s="2"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>6565.5</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>6698.2</v>
+      </c>
+      <c r="E267" s="1" t="n">
+        <f aca="false">C267+D267</f>
+        <v>13263.7</v>
+      </c>
+      <c r="F267" s="1" t="n">
+        <f aca="false">ABS(E268-E267)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G267" s="1" t="n">
+        <f aca="false">100*(F267/(E267+E268))</f>
+        <v>0.00565421106792969</v>
+      </c>
+      <c r="I267" s="1" t="n">
+        <f aca="false">ABS(C268-C267)</f>
+        <v>13.3000000000002</v>
+      </c>
+      <c r="J267" s="1" t="n">
+        <f aca="false">200*(I267/(C267+C268))</f>
+        <v>0.202779450665897</v>
+      </c>
+      <c r="K267" s="1" t="n">
+        <f aca="false">ABS(D268-D267)</f>
+        <v>14.8000000000002</v>
+      </c>
+      <c r="L267" s="1" t="n">
+        <f aca="false">200*(K267/(D268+D267))</f>
+        <v>0.220711047482704</v>
+      </c>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
+      <c r="P267" s="2"/>
+      <c r="Q267" s="2"/>
+      <c r="U267" s="2"/>
+      <c r="V267" s="2"/>
+      <c r="W267" s="2"/>
+      <c r="X267" s="2"/>
+      <c r="Y267" s="2"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>6552.2</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>6713</v>
+      </c>
+      <c r="E268" s="1" t="n">
+        <f aca="false">C268+D268</f>
+        <v>13265.2</v>
+      </c>
+      <c r="M268" s="2"/>
+      <c r="N268" s="2"/>
+      <c r="P268" s="2"/>
+      <c r="Q268" s="2"/>
+      <c r="U268" s="2"/>
+      <c r="V268" s="2"/>
+      <c r="W268" s="2"/>
+      <c r="X268" s="2"/>
+      <c r="Y268" s="2"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>8193.1</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>8285.7</v>
+      </c>
+      <c r="E269" s="1" t="n">
+        <f aca="false">C269+D269</f>
+        <v>16478.8</v>
+      </c>
+      <c r="F269" s="1" t="n">
+        <f aca="false">ABS(E270-E269)</f>
+        <v>2.10000000000218</v>
+      </c>
+      <c r="G269" s="1" t="n">
+        <f aca="false">100*(F269/(E269+E270))</f>
+        <v>0.00637222921819479</v>
+      </c>
+      <c r="I269" s="1" t="n">
+        <f aca="false">ABS(C270-C269)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J269" s="1" t="n">
+        <f aca="false">200*(I269/(C269+C270))</f>
+        <v>0.00610250996234751</v>
+      </c>
+      <c r="K269" s="1" t="n">
+        <f aca="false">ABS(D270-D269)</f>
+        <v>2.60000000000036</v>
+      </c>
+      <c r="L269" s="1" t="n">
+        <f aca="false">200*(K269/(D270+D269))</f>
+        <v>0.0313842885423249</v>
+      </c>
+      <c r="M269" s="2"/>
+      <c r="N269" s="2"/>
+      <c r="P269" s="2"/>
+      <c r="Q269" s="2"/>
+      <c r="U269" s="2"/>
+      <c r="V269" s="2"/>
+      <c r="W269" s="2"/>
+      <c r="X269" s="2"/>
+      <c r="Y269" s="2"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>8193.6</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>8283.1</v>
+      </c>
+      <c r="E270" s="1" t="n">
+        <f aca="false">C270+D270</f>
+        <v>16476.7</v>
+      </c>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+      <c r="P270" s="2"/>
+      <c r="Q270" s="2"/>
+      <c r="U270" s="2"/>
+      <c r="V270" s="2"/>
+      <c r="W270" s="2"/>
+      <c r="X270" s="2"/>
+      <c r="Y270" s="2"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>8147.7</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>7341.1</v>
+      </c>
+      <c r="E271" s="1" t="n">
+        <f aca="false">C271+D271</f>
+        <v>15488.8</v>
+      </c>
+      <c r="F271" s="1" t="n">
+        <f aca="false">ABS(E272-E271)</f>
+        <v>871.200000000001</v>
+      </c>
+      <c r="G271" s="1" t="n">
+        <f aca="false">100*(F271/(E271+E272))</f>
+        <v>2.73542488257015</v>
+      </c>
+      <c r="I271" s="1" t="n">
+        <f aca="false">ABS(C272-C271)</f>
+        <v>356.2</v>
+      </c>
+      <c r="J271" s="1" t="n">
+        <f aca="false">200*(I271/(C271+C272))</f>
+        <v>4.2782675538687</v>
+      </c>
+      <c r="K271" s="1" t="n">
+        <f aca="false">ABS(D272-D271)</f>
+        <v>515</v>
+      </c>
+      <c r="L271" s="1" t="n">
+        <f aca="false">200*(K271/(D272+D271))</f>
+        <v>6.77756428815834</v>
+      </c>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+      <c r="P271" s="2"/>
+      <c r="Q271" s="2"/>
+      <c r="U271" s="2"/>
+      <c r="V271" s="2"/>
+      <c r="W271" s="2"/>
+      <c r="X271" s="2"/>
+      <c r="Y271" s="2"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>8503.9</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>7856.1</v>
+      </c>
+      <c r="E272" s="1" t="n">
+        <f aca="false">C272+D272</f>
+        <v>16360</v>
+      </c>
+      <c r="M272" s="2"/>
+      <c r="N272" s="2"/>
+      <c r="P272" s="2"/>
+      <c r="Q272" s="2"/>
+      <c r="U272" s="2"/>
+      <c r="V272" s="2"/>
+      <c r="W272" s="2"/>
+      <c r="X272" s="2"/>
+      <c r="Y272" s="2"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>7012.7</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>6884.6</v>
+      </c>
+      <c r="E273" s="1" t="n">
+        <f aca="false">C273+D273</f>
+        <v>13897.3</v>
+      </c>
+      <c r="F273" s="1" t="n">
+        <f aca="false">ABS(E274-E273)</f>
+        <v>253.200000000001</v>
+      </c>
+      <c r="G273" s="1" t="n">
+        <f aca="false">100*(F273/(E273+E274))</f>
+        <v>0.902744600289508</v>
+      </c>
+      <c r="I273" s="1" t="n">
+        <f aca="false">ABS(C274-C273)</f>
+        <v>290.7</v>
+      </c>
+      <c r="J273" s="1" t="n">
+        <f aca="false">200*(I273/(C273+C274))</f>
+        <v>4.06116190862036</v>
+      </c>
+      <c r="K273" s="1" t="n">
+        <f aca="false">ABS(D274-D273)</f>
+        <v>37.5</v>
+      </c>
+      <c r="L273" s="1" t="n">
+        <f aca="false">200*(K273/(D274+D273))</f>
+        <v>0.546181463329377</v>
+      </c>
+      <c r="M273" s="2"/>
+      <c r="N273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="U273" s="2"/>
+      <c r="V273" s="2"/>
+      <c r="W273" s="2"/>
+      <c r="X273" s="2"/>
+      <c r="Y273" s="2"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>7303.4</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>6847.1</v>
+      </c>
+      <c r="E274" s="1" t="n">
+        <f aca="false">C274+D274</f>
+        <v>14150.5</v>
+      </c>
+      <c r="M274" s="2"/>
+      <c r="N274" s="2"/>
+      <c r="P274" s="2"/>
+      <c r="Q274" s="2"/>
+      <c r="U274" s="2"/>
+      <c r="V274" s="2"/>
+      <c r="W274" s="2"/>
+      <c r="X274" s="2"/>
+      <c r="Y274" s="2"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>6955.4</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>6725.3</v>
+      </c>
+      <c r="E275" s="1" t="n">
+        <f aca="false">C275+D275</f>
+        <v>13680.7</v>
+      </c>
+      <c r="F275" s="1" t="n">
+        <f aca="false">ABS(E276-E275)</f>
+        <v>168.099999999999</v>
+      </c>
+      <c r="G275" s="1" t="n">
+        <f aca="false">100*(F275/(E275+E276))</f>
+        <v>0.610617701011637</v>
+      </c>
+      <c r="I275" s="1" t="n">
+        <f aca="false">ABS(C276-C275)</f>
+        <v>304</v>
+      </c>
+      <c r="J275" s="1" t="n">
+        <f aca="false">200*(I275/(C275+C276))</f>
+        <v>4.27723218054422</v>
+      </c>
+      <c r="K275" s="1" t="n">
+        <f aca="false">ABS(D276-D275)</f>
+        <v>135.900000000001</v>
+      </c>
+      <c r="L275" s="1" t="n">
+        <f aca="false">200*(K275/(D276+D275))</f>
+        <v>2.04135279052477</v>
+      </c>
+      <c r="M275" s="2"/>
+      <c r="N275" s="2"/>
+      <c r="P275" s="2"/>
+      <c r="Q275" s="2"/>
+      <c r="U275" s="2"/>
+      <c r="V275" s="2"/>
+      <c r="W275" s="2"/>
+      <c r="X275" s="2"/>
+      <c r="Y275" s="2"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>7259.4</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>6589.4</v>
+      </c>
+      <c r="E276" s="1" t="n">
+        <f aca="false">C276+D276</f>
+        <v>13848.8</v>
+      </c>
+      <c r="M276" s="2"/>
+      <c r="N276" s="2"/>
+      <c r="P276" s="2"/>
+      <c r="Q276" s="2"/>
+      <c r="U276" s="2"/>
+      <c r="V276" s="2"/>
+      <c r="W276" s="2"/>
+      <c r="X276" s="2"/>
+      <c r="Y276" s="2"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>6730.4</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>6766.6</v>
+      </c>
+      <c r="E277" s="1" t="n">
+        <f aca="false">C277+D277</f>
+        <v>13497</v>
+      </c>
+      <c r="F277" s="1" t="n">
+        <f aca="false">ABS(E278-E277)</f>
+        <v>722.799999999999</v>
+      </c>
+      <c r="G277" s="1" t="n">
+        <f aca="false">100*(F277/(E277+E278))</f>
+        <v>2.75130180577971</v>
+      </c>
+      <c r="I277" s="1" t="n">
+        <f aca="false">ABS(C278-C277)</f>
+        <v>392.9</v>
+      </c>
+      <c r="J277" s="1" t="n">
+        <f aca="false">200*(I277/(C277+C278))</f>
+        <v>6.01320793700594</v>
+      </c>
+      <c r="K277" s="1" t="n">
+        <f aca="false">ABS(D278-D277)</f>
+        <v>329.900000000001</v>
+      </c>
+      <c r="L277" s="1" t="n">
+        <f aca="false">200*(K277/(D278+D277))</f>
+        <v>4.99723553959996</v>
+      </c>
+      <c r="M277" s="2"/>
+      <c r="N277" s="2"/>
+      <c r="P277" s="2"/>
+      <c r="Q277" s="2"/>
+      <c r="U277" s="2"/>
+      <c r="V277" s="2"/>
+      <c r="W277" s="2"/>
+      <c r="X277" s="2"/>
+      <c r="Y277" s="2"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>6337.5</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>6436.7</v>
+      </c>
+      <c r="E278" s="1" t="n">
+        <f aca="false">C278+D278</f>
+        <v>12774.2</v>
+      </c>
+      <c r="M278" s="2"/>
+      <c r="N278" s="2"/>
+      <c r="P278" s="2"/>
+      <c r="Q278" s="2"/>
+      <c r="U278" s="2"/>
+      <c r="V278" s="2"/>
+      <c r="W278" s="2"/>
+      <c r="X278" s="2"/>
+      <c r="Y278" s="2"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>6648.5</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>6596.4</v>
+      </c>
+      <c r="E279" s="1" t="n">
+        <f aca="false">C279+D279</f>
+        <v>13244.9</v>
+      </c>
+      <c r="F279" s="1" t="n">
+        <f aca="false">ABS(E280-E279)</f>
+        <v>337.5</v>
+      </c>
+      <c r="G279" s="1" t="n">
+        <f aca="false">100*(F279/(E279+E280))</f>
+        <v>1.25804684034547</v>
+      </c>
+      <c r="I279" s="1" t="n">
+        <f aca="false">ABS(C280-C279)</f>
+        <v>43.8000000000002</v>
+      </c>
+      <c r="J279" s="1" t="n">
+        <f aca="false">200*(I279/(C279+C280))</f>
+        <v>0.660972444390791</v>
+      </c>
+      <c r="K279" s="1" t="n">
+        <f aca="false">ABS(D280-D279)</f>
+        <v>381.3</v>
+      </c>
+      <c r="L279" s="1" t="n">
+        <f aca="false">200*(K279/(D280+D279))</f>
+        <v>5.61805202554866</v>
+      </c>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+      <c r="P279" s="2"/>
+      <c r="Q279" s="2"/>
+      <c r="U279" s="2"/>
+      <c r="V279" s="2"/>
+      <c r="W279" s="2"/>
+      <c r="X279" s="2"/>
+      <c r="Y279" s="2"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>6604.7</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>6977.7</v>
+      </c>
+      <c r="E280" s="1" t="n">
+        <f aca="false">C280+D280</f>
+        <v>13582.4</v>
+      </c>
+      <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+      <c r="M280" s="2"/>
+      <c r="N280" s="2"/>
+      <c r="P280" s="2"/>
+      <c r="Q280" s="2"/>
+      <c r="U280" s="2"/>
+      <c r="V280" s="2"/>
+      <c r="W280" s="2"/>
+      <c r="X280" s="2"/>
+      <c r="Y280" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
